--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.154</v>
+        <v>-22.20650000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.097600000000005</v>
+        <v>-8.220699999999999</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.6832</v>
+        <v>-21.7015</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.482900000000001</v>
+        <v>-8.459600000000004</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.569699999999996</v>
+        <v>-8.4817</v>
       </c>
     </row>
     <row r="20">
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.35399999999998</v>
+        <v>-20.21169999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.00750000000001</v>
+        <v>-11.89760000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.14689999999997</v>
+        <v>-20.10479999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.16719999999999</v>
+        <v>-13.20409999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.60299999999999</v>
+        <v>-21.61459999999997</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.15519999999997</v>
+        <v>-21.17289999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.45019999999999</v>
+        <v>-13.6625</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.89039999999998</v>
+        <v>-20.89359999999996</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.8739</v>
+        <v>-11.6969</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.538800000000001</v>
+        <v>-6.669300000000003</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.73509999999999</v>
+        <v>-14.10139999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.440000000000001</v>
+        <v>-7.462399999999998</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.4572</v>
+        <v>-11.5219</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.65829999999998</v>
+        <v>-13.399</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.307</v>
+        <v>-8.319800000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.7927</v>
+        <v>-10.5406</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.6141</v>
+        <v>-21.59519999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.9294</v>
+        <v>-10.87570000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.4826</v>
+        <v>-13.9229</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.848700000000001</v>
+        <v>-8.782300000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.1886</v>
+        <v>-22.2768</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.3287</v>
+        <v>-8.1806</v>
       </c>
     </row>
     <row r="58">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.92089999999998</v>
+        <v>-22.11319999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.875399999999989</v>
+        <v>-7.545299999999989</v>
       </c>
     </row>
     <row r="65">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64080000000002</v>
+        <v>-21.62080000000001</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.4616</v>
+        <v>-11.5745</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.29870000000001</v>
+        <v>-20.39230000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.626100000000001</v>
+        <v>-7.571300000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8968</v>
+        <v>-21.89469999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.78039999999999</v>
+        <v>-14.52819999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.7972</v>
+        <v>-12.8208</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.7763</v>
+        <v>-13.956</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.26919999999997</v>
+        <v>-20.41909999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1726,12 +1726,12 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.712999999999999</v>
+        <v>-6.589400000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.36220000000001</v>
+        <v>-21.3608</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.630900000000002</v>
+        <v>-6.549200000000005</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.435</v>
+        <v>-8.4945</v>
       </c>
     </row>
     <row r="97">
@@ -1849,10 +1849,10 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.01769999999999</v>
+        <v>-13.43719999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.943700000000002</v>
+        <v>-7.839000000000003</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.7407</v>
+        <v>-21.8689</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
